--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3893.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3893.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.002951549527506</v>
+        <v>1.654535055160522</v>
       </c>
       <c r="B1">
-        <v>2.045845014687214</v>
+        <v>2.201472282409668</v>
       </c>
       <c r="C1">
-        <v>2.107688135318275</v>
+        <v>4.29674243927002</v>
       </c>
       <c r="D1">
-        <v>2.782753631071847</v>
+        <v>4.619184494018555</v>
       </c>
       <c r="E1">
-        <v>4.574754951041945</v>
+        <v>1.815486431121826</v>
       </c>
     </row>
   </sheetData>
